--- a/DataScienceOrientation/DAT101x_Labfiles/DataExploration.xlsx
+++ b/DataScienceOrientation/DAT101x_Labfiles/DataExploration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="0" windowWidth="19160" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,11 +55,20 @@
   <si>
     <t>Beach</t>
   </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -89,14 +98,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -106,10 +171,3333 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42552.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42553.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42554.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42555.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42556.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42557.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42558.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42559.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42560.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42561.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42562.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42563.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42564.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42565.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42566.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42567.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42568.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42569.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42570.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42571.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42572.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42573.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42574.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42575.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42576.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42577.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42578.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42579.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42580.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42581.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42582.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$2:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>134.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>106.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2082151504"/>
+        <c:axId val="-2083303440"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-2082151504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2083303440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-2083303440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2082151504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$H$2:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>202.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>269.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>123.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2082149904"/>
+        <c:axId val="-2084933456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2082149904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Leaflets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2084933456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2084933456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2082149904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$2:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>134.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>106.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2070789328"/>
+        <c:axId val="-2069527904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2070789328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2069527904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2069527904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2070789328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" Requires="we">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Add-in 5"/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks noGrp="1"/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/webextensions/webextension/2010/11">
+              <we:webextensionref xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Add-in 5"/>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1048576" totalsRowShown="0">
-  <autoFilter ref="A1:G1048576"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I33" totalsRowCount="1">
+  <autoFilter ref="A1:I33"/>
+  <sortState ref="A2:G32">
+    <sortCondition ref="A1:A32"/>
+  </sortState>
+  <tableColumns count="9">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Location"/>
     <tableColumn id="3" name="Lemon"/>
@@ -117,6 +3505,13 @@
     <tableColumn id="5" name="Temperature"/>
     <tableColumn id="6" name="Leaflets"/>
     <tableColumn id="7" name="Price"/>
+    <tableColumn id="8" name="Sales" dataDxfId="6" totalsRowDxfId="7">
+      <calculatedColumnFormula>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Revenue" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+      <calculatedColumnFormula>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Table1[Revenue])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -383,12 +3778,24 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{67A1940F-97CC-304E-8286-6B41611A757C}">
+  <we:reference id="wa104379169" version="1.5.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104379169" version="1.5.0.0" store="WA104379169" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -400,9 +3807,10 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +3832,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42552</v>
       </c>
@@ -447,8 +3861,16 @@
       <c r="G2">
         <v>0.25</v>
       </c>
+      <c r="H2">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>164</v>
+      </c>
+      <c r="I2" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42553</v>
       </c>
@@ -470,8 +3892,16 @@
       <c r="G3">
         <v>0.25</v>
       </c>
+      <c r="H3">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>165</v>
+      </c>
+      <c r="I3" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>41.25</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42554</v>
       </c>
@@ -493,8 +3923,16 @@
       <c r="G4">
         <v>0.25</v>
       </c>
+      <c r="H4">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="I4" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>46.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42555</v>
       </c>
@@ -516,8 +3954,16 @@
       <c r="G5">
         <v>0.25</v>
       </c>
+      <c r="H5">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>233</v>
+      </c>
+      <c r="I5" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>58.25</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42556</v>
       </c>
@@ -539,8 +3985,16 @@
       <c r="G6">
         <v>0.25</v>
       </c>
+      <c r="H6">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>277</v>
+      </c>
+      <c r="I6" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>69.25</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42557</v>
       </c>
@@ -562,157 +4016,216 @@
       <c r="G7">
         <v>0.25</v>
       </c>
+      <c r="H7">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="I7" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>43</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>42557</v>
+        <v>42558</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="D8">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="G8">
         <v>0.25</v>
       </c>
+      <c r="H8">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>244</v>
+      </c>
+      <c r="I8" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>61</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>42558</v>
+        <v>42559</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D9">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F9">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="G9">
         <v>0.25</v>
       </c>
+      <c r="H9">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>209</v>
+      </c>
+      <c r="I9" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>52.25</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42560</v>
+      </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D10">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E10">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G10">
         <v>0.25</v>
       </c>
+      <c r="H10">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>229</v>
+      </c>
+      <c r="I10" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>57.25</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>42560</v>
+        <v>42561</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G11">
         <v>0.25</v>
       </c>
+      <c r="H11">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>238</v>
+      </c>
+      <c r="I11" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>59.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>42561</v>
+        <v>42562</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D12">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E12">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G12">
         <v>0.25</v>
       </c>
+      <c r="H12">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>282</v>
+      </c>
+      <c r="I12" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>70.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="D13">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E13">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="G13">
         <v>0.25</v>
       </c>
+      <c r="H13">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>225</v>
+      </c>
+      <c r="I13" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>56.25</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>42563</v>
+        <v>42564</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D14">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <v>99</v>
@@ -720,249 +4233,340 @@
       <c r="G14">
         <v>0.25</v>
       </c>
+      <c r="H14">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>184</v>
+      </c>
+      <c r="I14" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>46</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>42564</v>
+        <v>42565</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E15">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G15">
         <v>0.25</v>
       </c>
+      <c r="H15">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="I15" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>51.75</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>42565</v>
+        <v>42566</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D16">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E16">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F16">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G16">
-        <v>0.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>160</v>
+      </c>
+      <c r="I16" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>42566</v>
+        <v>42567</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D17">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="G17">
         <v>0.5</v>
       </c>
+      <c r="H17">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>131</v>
+      </c>
+      <c r="I17" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>65.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>42567</v>
+        <v>42568</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E18">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F18">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G18">
         <v>0.5</v>
       </c>
+      <c r="H18">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>191</v>
+      </c>
+      <c r="I18" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>95.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>42568</v>
+        <v>42569</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E19">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F19">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G19">
         <v>0.5</v>
       </c>
+      <c r="H19">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>223</v>
+      </c>
+      <c r="I19" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>111.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>42569</v>
+        <v>42570</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D20">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E20">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F20">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G20">
         <v>0.5</v>
       </c>
+      <c r="H20">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="I20" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>103.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>78</v>
-      </c>
-      <c r="F21">
-        <v>113</v>
+        <v>70</v>
+      </c>
+      <c r="F21" s="2">
+        <v>109</v>
       </c>
       <c r="G21">
         <v>0.5</v>
       </c>
+      <c r="H21">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>113</v>
+      </c>
+      <c r="I21" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>56.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>42571</v>
+        <v>42572</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
       </c>
       <c r="G22">
         <v>0.5</v>
       </c>
+      <c r="H22">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>133</v>
+      </c>
+      <c r="I22" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>66.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>42572</v>
+        <v>42573</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E23">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F23">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G23">
         <v>0.5</v>
       </c>
+      <c r="H23">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="I23" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>93.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>42573</v>
+        <v>42574</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G24">
         <v>0.5</v>
       </c>
+      <c r="H24">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>202</v>
+      </c>
+      <c r="I24" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>101</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>42574</v>
+        <v>42575</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D25">
         <v>82</v>
       </c>
       <c r="E25">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F25">
         <v>117</v>
@@ -970,195 +4574,271 @@
       <c r="G25">
         <v>0.5</v>
       </c>
+      <c r="H25">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>203</v>
+      </c>
+      <c r="I25" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>101.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>42575</v>
+        <v>42576</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="D26">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E26">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G26">
         <v>0.5</v>
       </c>
+      <c r="H26">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>269</v>
+      </c>
+      <c r="I26" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>134.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>42576</v>
+        <v>42577</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D27">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E27">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="G27">
-        <v>0.5</v>
+        <v>0.35</v>
+      </c>
+      <c r="H27">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>305</v>
+      </c>
+      <c r="I27" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>106.75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>42577</v>
+        <v>42578</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="D28">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="E28">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F28">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="G28">
         <v>0.35</v>
       </c>
+      <c r="H28">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="I28" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>60.199999999999996</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>42578</v>
+        <v>42579</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D29">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E29">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F29">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G29">
         <v>0.35</v>
       </c>
+      <c r="H29">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>159</v>
+      </c>
+      <c r="I29" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>55.65</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>42579</v>
+        <v>42580</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D30">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E30">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G30">
         <v>0.35</v>
       </c>
+      <c r="H30">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>166</v>
+      </c>
+      <c r="I30" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>58.099999999999994</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>42580</v>
+        <v>42581</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D31">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E31">
+        <v>82</v>
+      </c>
+      <c r="F31">
         <v>81</v>
-      </c>
-      <c r="F31">
-        <v>95</v>
       </c>
       <c r="G31">
         <v>0.35</v>
       </c>
+      <c r="H31">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>145</v>
+      </c>
+      <c r="I31" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>50.75</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>42581</v>
+        <v>42582</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>82</v>
       </c>
       <c r="F32">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G32">
         <v>0.35</v>
       </c>
+      <c r="H32">
+        <f>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</f>
+        <v>123</v>
+      </c>
+      <c r="I32" s="4">
+        <f>Table1[[#This Row],[Sales]]*Table1[[#This Row],[Price]]</f>
+        <v>43.05</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>42582</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>76</v>
-      </c>
-      <c r="D33">
-        <v>47</v>
-      </c>
-      <c r="E33">
-        <v>82</v>
-      </c>
-      <c r="F33">
-        <v>68</v>
-      </c>
-      <c r="G33">
-        <v>0.35</v>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H33" s="3"/>
+      <c r="I33" s="4">
+        <f>SUM(Table1[Revenue])</f>
+        <v>2138</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="top10" dxfId="2" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="1" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Data!I1:I32</xm:f>
+              <xm:sqref>I34</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>